--- a/data/trans_camb/P74B-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P74B-Clase-trans_camb.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.796115593902809</v>
+        <v>-4.799603542470482</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.006617130590195718</v>
+        <v>0.2424690639003079</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-55.05189804140623</v>
+        <v>-53.22160481979042</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-50.25685951976866</v>
+        <v>-48.79137784957345</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-6.926245921106997</v>
+        <v>-6.518471316436488</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-1.151407452552435</v>
+        <v>-1.726871894753848</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>9.273971282753791</v>
+        <v>9.078814330287816</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>16.08796440782766</v>
+        <v>15.49341583914183</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-9.485358492713059</v>
+        <v>-8.205526464532763</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-7.652008077721831</v>
+        <v>-5.919209189366017</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>9.982591338412981</v>
+        <v>9.178019173456411</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>16.75906836793709</v>
+        <v>16.0924046861117</v>
       </c>
     </row>
     <row r="7">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.5078532066568502</v>
+        <v>-0.5108412190738499</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.04293534756674664</v>
+        <v>-0.02239230138110281</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.5986562883394417</v>
+        <v>-0.5935490697665537</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.5588851346827546</v>
+        <v>-0.5515269083548252</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3362762918248496</v>
+        <v>-0.3225149227403224</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.0689954802998158</v>
+        <v>-0.08347696428666215</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>2.039063079400965</v>
+        <v>2.05591782862212</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>3.879200954616757</v>
+        <v>3.143556323489951</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.1356508489619462</v>
+        <v>-0.1190177941416082</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.1260662291483721</v>
+        <v>-0.0913331161694424</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.78843788256772</v>
+        <v>0.7473848808741901</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.305380210232908</v>
+        <v>1.335764999873052</v>
       </c>
     </row>
     <row r="10">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.584047707090584</v>
+        <v>-1.557187182631356</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.987536607428995</v>
+        <v>0.5318862269604182</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-37.39859199781296</v>
+        <v>-38.85928120835271</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-54.34198949131572</v>
+        <v>-55.30071181496326</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.211363292661425</v>
+        <v>-1.076665724991263</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-2.296410203177914</v>
+        <v>-2.177403421731719</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>12.52309226189194</v>
+        <v>12.0779235957275</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>14.65810259967267</v>
+        <v>14.05875838243406</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13.891628882995</v>
+        <v>14.54207330903796</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-1.637698211641094</v>
+        <v>-2.49567541751598</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>15.71080232243288</v>
+        <v>15.39095635547402</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>13.84626279784229</v>
+        <v>14.20815756097007</v>
       </c>
     </row>
     <row r="13">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2580842006154075</v>
+        <v>-0.289877426848495</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.06122341072670105</v>
+        <v>-0.01064498470765077</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4597480043899756</v>
+        <v>-0.4642005015075812</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.6526770813022637</v>
+        <v>-0.657895065317767</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.0883040177031703</v>
+        <v>-0.05988854991090362</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1672237836405296</v>
+        <v>-0.1369025980518902</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>3.859974979617291</v>
+        <v>3.130746278391729</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>3.887287326083542</v>
+        <v>4.235805573965931</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.2700303363504823</v>
+        <v>0.2638944588805782</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.04897944068774009</v>
+        <v>-0.07110504090584199</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.476393314606288</v>
+        <v>1.476797121108481</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.423059193409879</v>
+        <v>1.48373792857485</v>
       </c>
     </row>
     <row r="16">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>4.479018992565641</v>
+        <v>4.813048762683922</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.095369435699407</v>
+        <v>4.786533412199852</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-32.76676886237456</v>
+        <v>-34.1821199098115</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-32.77523789895237</v>
+        <v>-31.15429651536635</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>5.435955278032862</v>
+        <v>5.638981153807503</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>4.536171480801987</v>
+        <v>3.843185766404588</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>14.31817231867825</v>
+        <v>13.80134727716315</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>13.60488307615424</v>
+        <v>14.21322464589856</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.321320668005209</v>
+        <v>3.644677665770758</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.747364652702469</v>
+        <v>8.836413810776946</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>16.70281657256025</v>
+        <v>16.82441833715636</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>16.40846814546166</v>
+        <v>16.26179341932956</v>
       </c>
     </row>
     <row r="19">
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.7120135592914417</v>
+        <v>0.6765302297543124</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.6081855271463126</v>
+        <v>0.6737096916310693</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.3713982760421141</v>
+        <v>-0.387112471472181</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.368647858924375</v>
+        <v>-0.3539552250219408</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.364186285788874</v>
+        <v>0.418403436263566</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3026697990691817</v>
+        <v>0.3016195739261268</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>5.766009507364987</v>
+        <v>5.668227260355754</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>5.074938354424629</v>
+        <v>5.754369747857869</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.05645132413868782</v>
+        <v>0.04985848640002191</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1157209199651907</v>
+        <v>0.1263136541741147</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.983772177240882</v>
+        <v>2.031410329276113</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.894169945753893</v>
+        <v>1.971422321484686</v>
       </c>
     </row>
     <row r="22">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.7837301276720385</v>
+        <v>-1.031169569106894</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.872415775965739</v>
+        <v>-1.735470171698208</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-36.91249258852775</v>
+        <v>-37.78886125300432</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-32.96407147655967</v>
+        <v>-33.1221010405995</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.667205919271518</v>
+        <v>-2.833992498257393</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-2.259238565680167</v>
+        <v>-2.53259650436433</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>6.347423101679099</v>
+        <v>6.580245511465066</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.230626926061068</v>
+        <v>4.871749424674934</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-14.34954026388575</v>
+        <v>-15.21542368582919</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-11.14915447981219</v>
+        <v>-10.24510602220645</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>5.545793436519349</v>
+        <v>5.83872204843635</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>5.840964896233229</v>
+        <v>6.206938828405362</v>
       </c>
     </row>
     <row r="25">
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.07400641736383493</v>
+        <v>-0.1013237528853363</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1770725221755965</v>
+        <v>-0.1659254252310927</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.4613285636318182</v>
+        <v>-0.4765567885103743</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.4141390521818539</v>
+        <v>-0.4083985057410306</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1294928873375399</v>
+        <v>-0.131046041977179</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1082708119521942</v>
+        <v>-0.1177796811397571</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.871985752799336</v>
+        <v>0.8581561497212796</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.6527465912985898</v>
+        <v>0.6386365715766391</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.2068111808455013</v>
+        <v>-0.2194770978450563</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.1618629978152656</v>
+        <v>-0.1449620057187223</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3277993200883311</v>
+        <v>0.3537695972793701</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3401545599502867</v>
+        <v>0.3586909977995476</v>
       </c>
     </row>
     <row r="28">
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>3.21450097146239</v>
+        <v>3.0129022792933</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.501698942521981</v>
+        <v>-0.5116322710612766</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-24.19873112830372</v>
+        <v>-23.49921013496553</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-32.7252120457502</v>
+        <v>-33.57828619888602</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.059138611526939</v>
+        <v>-0.9008518004534906</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-10.75291210201416</v>
+        <v>-10.69594650513941</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>15.91135245708385</v>
+        <v>16.43252703796332</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>12.13645807565462</v>
+        <v>11.54058917105982</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-3.604783623192974</v>
+        <v>-2.977611931049106</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-12.47112227894806</v>
+        <v>-11.85731336694929</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>13.41523582933801</v>
+        <v>14.06889088924401</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>3.618081314936518</v>
+        <v>3.832452866587996</v>
       </c>
     </row>
     <row r="31">
@@ -1353,22 +1353,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.2304324028487146</v>
+        <v>0.2314682905144115</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.08717335761776684</v>
+        <v>-0.09339946411691814</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2975010796457206</v>
+        <v>-0.2935740124501197</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.4154514786068358</v>
+        <v>-0.4187927858603016</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.02443379758260711</v>
+        <v>-0.02274039250797549</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.268303282373472</v>
+        <v>-0.2627206777502985</v>
       </c>
     </row>
     <row r="33">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>3.411111843280543</v>
+        <v>3.166813825464217</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>2.503984614225662</v>
+        <v>2.170861274533731</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.05585169297253175</v>
+        <v>-0.04467662475901358</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>-0.1836662809761705</v>
+        <v>-0.1779059447604958</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.4482688807448705</v>
+        <v>0.4597496601800451</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1277325442982094</v>
+        <v>0.1278649397531301</v>
       </c>
     </row>
     <row r="34">
@@ -1437,16 +1437,16 @@
       <c r="C35" s="5" t="inlineStr"/>
       <c r="D35" s="5" t="inlineStr"/>
       <c r="E35" s="5" t="n">
-        <v>-7.342554127429968</v>
+        <v>-7.669563989797673</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-9.050618206220348</v>
+        <v>-8.821790563220439</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-8.397367397138494</v>
+        <v>-8.254091018795874</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-11.16964619040118</v>
+        <v>-10.41003162557523</v>
       </c>
     </row>
     <row r="36">
@@ -1459,16 +1459,16 @@
       <c r="C36" s="5" t="inlineStr"/>
       <c r="D36" s="5" t="inlineStr"/>
       <c r="E36" s="5" t="n">
-        <v>2.844186302359512</v>
+        <v>2.729958197026281</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1.387855989043629</v>
+        <v>1.620762851843718</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>2.141218668543706</v>
+        <v>2.293006954862112</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-0.6638836175743656</v>
+        <v>0.4714987318047251</v>
       </c>
     </row>
     <row r="37">
@@ -1507,16 +1507,16 @@
       <c r="C38" s="6" t="inlineStr"/>
       <c r="D38" s="6" t="inlineStr"/>
       <c r="E38" s="6" t="n">
-        <v>-0.07972498079529795</v>
+        <v>-0.08495964099748275</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.1007952360094906</v>
+        <v>-0.09626456045712918</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.09170722663720482</v>
+        <v>-0.08991972011667197</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.1231127986429166</v>
+        <v>-0.1133812904479457</v>
       </c>
     </row>
     <row r="39">
@@ -1529,16 +1529,16 @@
       <c r="C39" s="6" t="inlineStr"/>
       <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="6" t="n">
-        <v>0.03323217040871829</v>
+        <v>0.03172509497613808</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.01469389518197588</v>
+        <v>0.01945339518626627</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.02513506056865628</v>
+        <v>0.02717331528696583</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.00719670264450171</v>
+        <v>0.00584647599936286</v>
       </c>
     </row>
     <row r="40">
@@ -1579,22 +1579,22 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>2.690381109474519</v>
+        <v>2.683170192903165</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>2.68261228127016</v>
+        <v>2.595839073477535</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-19.37632272366426</v>
+        <v>-19.62369729925435</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-21.44491941241034</v>
+        <v>-21.14202867267839</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>1.761359227732973</v>
+        <v>1.376202608666096</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>0.5305399729665257</v>
+        <v>0.5357290499435121</v>
       </c>
     </row>
     <row r="42">
@@ -1605,22 +1605,22 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>7.423540771277619</v>
+        <v>7.537954693855629</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>7.246107703097461</v>
+        <v>7.326969180381661</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-10.26173583135512</v>
+        <v>-10.63230049702339</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>-12.36529990965675</v>
+        <v>-12.17958595409766</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>7.608861316128859</v>
+        <v>7.400920316694728</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>6.218077463630933</v>
+        <v>6.08448295455474</v>
       </c>
     </row>
     <row r="43">
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.3360131596068742</v>
+        <v>0.3116383457711874</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.3154541013987204</v>
+        <v>0.309159848817682</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.2281620860155711</v>
+        <v>-0.2331827264268057</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.2539915267733491</v>
+        <v>-0.2496295279388653</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.05468242579971767</v>
+        <v>0.04341396932800626</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.01747222652752842</v>
+        <v>0.0166377146950384</v>
       </c>
     </row>
     <row r="45">
@@ -1683,22 +1683,22 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>1.109347108027105</v>
+        <v>1.113856533490994</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.105140009118329</v>
+        <v>1.119767015456383</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.1272085157609661</v>
+        <v>-0.1320009581667445</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>-0.1543490863402826</v>
+        <v>-0.1512798583219744</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.2645483030962547</v>
+        <v>0.2577263435215777</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.2188540399139211</v>
+        <v>0.2066421960139408</v>
       </c>
     </row>
     <row r="46">
